--- a/medicine/Enfance/Le_Journal_de_Carrie/Le_Journal_de_Carrie.xlsx
+++ b/medicine/Enfance/Le_Journal_de_Carrie/Le_Journal_de_Carrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal de Carrie (titre original : The Carrie Diaries) est un roman publié par la romancière américaine Candace Bushnell en 2010. Le livre est une préquelle de la série Sex and the City et permet de suivre une jeune Carrie Bradshaw lors de sa dernière année de lycée dans les années 1980, bien avant qu'elle n'emménage à Manhattan. Une adaptation pour la télévision a été diffusée sur le réseau CW en janvier 2013, avec AnnaSophia Robb dans le rôle de Carrie.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Castlebury, Connecticut, début des années 1980. Bien avant de régner sur Manhattan aux côtés de ses amies Miranda, Charlotte et Samantha, Carrie Bradshaw est une adolescente de 17 ans qui s'apprête à faire sa rentrée en terminale. Entourée de ses amis Maggie, Walt, Lali, « La Souris » et Peter, elle doit faire face à l'arrivée du ténébreux Sebastian Kydd qui fait fantasmer toutes les filles du lycée.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carrie Bradshaw :  elle est la narratrice et personnage principal du livre. Passionnée d'écriture, c'est une jeune fille brillante et pleine de répartie bien que naïve concernant les hommes. Elle vit avec son père ainsi que ses jeunes sœurs Missy et Dorrit depuis le décès de leur mère. Elle entame une relation avec Sebastian Kydd, le nouvel élève, ce qui ne manque pas d'agacer sa pire ennemie Donna, mais finit par rompre quand elle le surprend en train d'embrasser son amie Lali. Elle part à New York à la fin du roman pour assister à un séminaire littéraire à la New School et finit par contacter la cousine de Donna, une certaine Samantha Jones.
 Sebastian Kydd : le petit ami de Carrie. Sebastian arrive au lycée de Castlebury après s'être fait renvoyer de son établissement précédent. Issu d'un milieu aisé, il fricote avec Donna avant de sortir avec Carrie mais celle-ci rompt avec lui quand elle le surprend avec son amie Lali.
@@ -581,7 +597,9 @@
           <t>Adaptation à la télévision</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté à la télévision par Amy Harris en une série qui a été diffusée sur The CW en janvier 2013. La jeune actrice AnnaSophia Robb a été choisie pour interpréter Carrie.
 </t>
